--- a/backend/student.xlsx
+++ b/backend/student.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheriewang/git/SE-TSS/backend/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheriewang/Desktop/SE-TSS/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="4880" windowWidth="24560" windowHeight="13400" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="1560" windowWidth="24560" windowHeight="13400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -933,19 +933,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
